--- a/natmiOut/OldD2/LR-pairs_lrc2p/Bmp4-Bmpr1b.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Bmp4-Bmpr1b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.84788250906419</v>
+        <v>9.705785499999999</v>
       </c>
       <c r="H2">
-        <v>8.84788250906419</v>
+        <v>19.411571</v>
       </c>
       <c r="I2">
-        <v>0.37336895494717</v>
+        <v>0.3626960398572868</v>
       </c>
       <c r="J2">
-        <v>0.37336895494717</v>
+        <v>0.3021399662106912</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.694085898325088</v>
+        <v>0.050199</v>
       </c>
       <c r="N2">
-        <v>0.694085898325088</v>
+        <v>0.100398</v>
       </c>
       <c r="O2">
-        <v>0.5287989059761763</v>
+        <v>0.03278033019113316</v>
       </c>
       <c r="P2">
-        <v>0.5287989059761763</v>
+        <v>0.02558313640211376</v>
       </c>
       <c r="Q2">
-        <v>6.141190479578652</v>
+        <v>0.4872207263145</v>
       </c>
       <c r="R2">
-        <v>6.141190479578652</v>
+        <v>1.948882905258</v>
       </c>
       <c r="S2">
-        <v>0.1974370949015317</v>
+        <v>0.01188929594553826</v>
       </c>
       <c r="T2">
-        <v>0.1974370949015317</v>
+        <v>0.007729687968098154</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.84788250906419</v>
+        <v>9.705785499999999</v>
       </c>
       <c r="H3">
-        <v>8.84788250906419</v>
+        <v>19.411571</v>
       </c>
       <c r="I3">
-        <v>0.37336895494717</v>
+        <v>0.3626960398572868</v>
       </c>
       <c r="J3">
-        <v>0.37336895494717</v>
+        <v>0.3021399662106912</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.618484703620065</v>
+        <v>0.7708836666666666</v>
       </c>
       <c r="N3">
-        <v>0.618484703620065</v>
+        <v>2.312651</v>
       </c>
       <c r="O3">
-        <v>0.4712010940238238</v>
+        <v>0.5033929188287568</v>
       </c>
       <c r="P3">
-        <v>0.4712010940238238</v>
+        <v>0.5893032329676366</v>
       </c>
       <c r="Q3">
-        <v>5.472279991283723</v>
+        <v>7.482031514120166</v>
       </c>
       <c r="R3">
-        <v>5.472279991283723</v>
+        <v>44.89218908472099</v>
       </c>
       <c r="S3">
-        <v>0.1759318600456383</v>
+        <v>0.1825786181513907</v>
       </c>
       <c r="T3">
-        <v>0.1759318600456383</v>
+        <v>0.1780520588966928</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.61269008750774</v>
+        <v>9.705785499999999</v>
       </c>
       <c r="H4">
-        <v>3.61269008750774</v>
+        <v>19.411571</v>
       </c>
       <c r="I4">
-        <v>0.1524507497854908</v>
+        <v>0.3626960398572868</v>
       </c>
       <c r="J4">
-        <v>0.1524507497854908</v>
+        <v>0.3021399662106912</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.694085898325088</v>
+        <v>0.09074700000000001</v>
       </c>
       <c r="N4">
-        <v>0.694085898325088</v>
+        <v>0.272241</v>
       </c>
       <c r="O4">
-        <v>0.5287989059761763</v>
+        <v>0.05925848371192178</v>
       </c>
       <c r="P4">
-        <v>0.5287989059761763</v>
+        <v>0.06937168705798773</v>
       </c>
       <c r="Q4">
-        <v>2.507517244757951</v>
+        <v>0.8807709167685001</v>
       </c>
       <c r="R4">
-        <v>2.507517244757951</v>
+        <v>5.284625500611</v>
       </c>
       <c r="S4">
-        <v>0.08061578970181531</v>
+        <v>0.02149281737026157</v>
       </c>
       <c r="T4">
-        <v>0.08061578970181531</v>
+        <v>0.02095995918367905</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -717,57 +717,57 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.61269008750774</v>
+        <v>9.705785499999999</v>
       </c>
       <c r="H5">
-        <v>3.61269008750774</v>
+        <v>19.411571</v>
       </c>
       <c r="I5">
-        <v>0.1524507497854908</v>
+        <v>0.3626960398572868</v>
       </c>
       <c r="J5">
-        <v>0.1524507497854908</v>
+        <v>0.3021399662106912</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.618484703620065</v>
+        <v>0.6195459999999999</v>
       </c>
       <c r="N5">
-        <v>0.618484703620065</v>
+        <v>1.239092</v>
       </c>
       <c r="O5">
-        <v>0.4712010940238238</v>
+        <v>0.4045682672681883</v>
       </c>
       <c r="P5">
-        <v>0.4712010940238238</v>
+        <v>0.3157419435722618</v>
       </c>
       <c r="Q5">
-        <v>2.234393558043371</v>
+        <v>6.013180583382999</v>
       </c>
       <c r="R5">
-        <v>2.234393558043371</v>
+        <v>24.052722333532</v>
       </c>
       <c r="S5">
-        <v>0.07183496008367546</v>
+        <v>0.1467353083900963</v>
       </c>
       <c r="T5">
-        <v>0.07183496008367546</v>
+        <v>0.09539826016222112</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,60 +776,60 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.50697010378191</v>
+        <v>4.987206333333334</v>
       </c>
       <c r="H6">
-        <v>5.50697010378191</v>
+        <v>14.961619</v>
       </c>
       <c r="I6">
-        <v>0.2323868643676</v>
+        <v>0.1863671917178862</v>
       </c>
       <c r="J6">
-        <v>0.2323868643676</v>
+        <v>0.2328767238425594</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M6">
-        <v>0.694085898325088</v>
+        <v>0.050199</v>
       </c>
       <c r="N6">
-        <v>0.694085898325088</v>
+        <v>0.100398</v>
       </c>
       <c r="O6">
-        <v>0.5287989059761763</v>
+        <v>0.03278033019113316</v>
       </c>
       <c r="P6">
-        <v>0.5287989059761763</v>
+        <v>0.02558313640211376</v>
       </c>
       <c r="Q6">
-        <v>3.822310291532871</v>
+        <v>0.250352770727</v>
       </c>
       <c r="R6">
-        <v>3.822310291532871</v>
+        <v>1.502116624362</v>
       </c>
       <c r="S6">
-        <v>0.1228859196408209</v>
+        <v>0.006109178081306527</v>
       </c>
       <c r="T6">
-        <v>0.1228859196408209</v>
+        <v>0.005957716990941575</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.50697010378191</v>
+        <v>4.987206333333334</v>
       </c>
       <c r="H7">
-        <v>5.50697010378191</v>
+        <v>14.961619</v>
       </c>
       <c r="I7">
-        <v>0.2323868643676</v>
+        <v>0.1863671917178862</v>
       </c>
       <c r="J7">
-        <v>0.2323868643676</v>
+        <v>0.2328767238425594</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.618484703620065</v>
+        <v>0.7708836666666666</v>
       </c>
       <c r="N7">
-        <v>0.618484703620065</v>
+        <v>2.312651</v>
       </c>
       <c r="O7">
-        <v>0.4712010940238238</v>
+        <v>0.5033929188287568</v>
       </c>
       <c r="P7">
-        <v>0.4712010940238238</v>
+        <v>0.5893032329676366</v>
       </c>
       <c r="Q7">
-        <v>3.405976772482113</v>
+        <v>3.844555904663222</v>
       </c>
       <c r="R7">
-        <v>3.405976772482113</v>
+        <v>34.601003141969</v>
       </c>
       <c r="S7">
-        <v>0.1095009447267791</v>
+        <v>0.09381592461278525</v>
       </c>
       <c r="T7">
-        <v>0.1095009447267791</v>
+        <v>0.1372350062433318</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.72988150117391</v>
+        <v>4.987206333333334</v>
       </c>
       <c r="H8">
-        <v>5.72988150117391</v>
+        <v>14.961619</v>
       </c>
       <c r="I8">
-        <v>0.2417934308997393</v>
+        <v>0.1863671917178862</v>
       </c>
       <c r="J8">
-        <v>0.2417934308997393</v>
+        <v>0.2328767238425594</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.694085898325088</v>
+        <v>0.09074700000000001</v>
       </c>
       <c r="N8">
-        <v>0.694085898325088</v>
+        <v>0.272241</v>
       </c>
       <c r="O8">
-        <v>0.5287989059761763</v>
+        <v>0.05925848371192178</v>
       </c>
       <c r="P8">
-        <v>0.5287989059761763</v>
+        <v>0.06937168705798773</v>
       </c>
       <c r="Q8">
-        <v>3.977029949038597</v>
+        <v>0.4525740131310001</v>
       </c>
       <c r="R8">
-        <v>3.977029949038597</v>
+        <v>4.073166118179</v>
       </c>
       <c r="S8">
-        <v>0.1278601017320083</v>
+        <v>0.01104383719485096</v>
       </c>
       <c r="T8">
-        <v>0.1278601017320083</v>
+        <v>0.01615505120949546</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -965,52 +965,548 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.72988150117391</v>
+        <v>4.987206333333334</v>
       </c>
       <c r="H9">
-        <v>5.72988150117391</v>
+        <v>14.961619</v>
       </c>
       <c r="I9">
-        <v>0.2417934308997393</v>
+        <v>0.1863671917178862</v>
       </c>
       <c r="J9">
-        <v>0.2417934308997393</v>
+        <v>0.2328767238425594</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.618484703620065</v>
+        <v>0.6195459999999999</v>
       </c>
       <c r="N9">
-        <v>0.618484703620065</v>
+        <v>1.239092</v>
       </c>
       <c r="O9">
-        <v>0.4712010940238238</v>
+        <v>0.4045682672681883</v>
       </c>
       <c r="P9">
-        <v>0.4712010940238238</v>
+        <v>0.3157419435722618</v>
       </c>
       <c r="Q9">
-        <v>3.543844062031639</v>
+        <v>3.089803734991333</v>
       </c>
       <c r="R9">
-        <v>3.543844062031639</v>
+        <v>18.538822409948</v>
       </c>
       <c r="S9">
-        <v>0.113933329167731</v>
+        <v>0.07539825182894347</v>
       </c>
       <c r="T9">
-        <v>0.113933329167731</v>
+        <v>0.07352894939879059</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>5.739525</v>
+      </c>
+      <c r="H10">
+        <v>17.218575</v>
+      </c>
+      <c r="I10">
+        <v>0.2144806299461176</v>
+      </c>
+      <c r="J10">
+        <v>0.2680061118544322</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.5</v>
+      </c>
+      <c r="M10">
+        <v>0.050199</v>
+      </c>
+      <c r="N10">
+        <v>0.100398</v>
+      </c>
+      <c r="O10">
+        <v>0.03278033019113316</v>
+      </c>
+      <c r="P10">
+        <v>0.02558313640211376</v>
+      </c>
+      <c r="Q10">
+        <v>0.288118415475</v>
+      </c>
+      <c r="R10">
+        <v>1.72871049285</v>
+      </c>
+      <c r="S10">
+        <v>0.007030745869235979</v>
+      </c>
+      <c r="T10">
+        <v>0.006856436916172095</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>5.739525</v>
+      </c>
+      <c r="H11">
+        <v>17.218575</v>
+      </c>
+      <c r="I11">
+        <v>0.2144806299461176</v>
+      </c>
+      <c r="J11">
+        <v>0.2680061118544322</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.7708836666666666</v>
+      </c>
+      <c r="N11">
+        <v>2.312651</v>
+      </c>
+      <c r="O11">
+        <v>0.5033929188287568</v>
+      </c>
+      <c r="P11">
+        <v>0.5893032329676366</v>
+      </c>
+      <c r="Q11">
+        <v>4.424506076925</v>
+      </c>
+      <c r="R11">
+        <v>39.820554692325</v>
+      </c>
+      <c r="S11">
+        <v>0.1079680303408066</v>
+      </c>
+      <c r="T11">
+        <v>0.1579368681709029</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>5.739525</v>
+      </c>
+      <c r="H12">
+        <v>17.218575</v>
+      </c>
+      <c r="I12">
+        <v>0.2144806299461176</v>
+      </c>
+      <c r="J12">
+        <v>0.2680061118544322</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.09074700000000001</v>
+      </c>
+      <c r="N12">
+        <v>0.272241</v>
+      </c>
+      <c r="O12">
+        <v>0.05925848371192178</v>
+      </c>
+      <c r="P12">
+        <v>0.06937168705798773</v>
+      </c>
+      <c r="Q12">
+        <v>0.5208446751750001</v>
+      </c>
+      <c r="R12">
+        <v>4.687602076575001</v>
+      </c>
+      <c r="S12">
+        <v>0.01270979691618473</v>
+      </c>
+      <c r="T12">
+        <v>0.01859203612119372</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>5.739525</v>
+      </c>
+      <c r="H13">
+        <v>17.218575</v>
+      </c>
+      <c r="I13">
+        <v>0.2144806299461176</v>
+      </c>
+      <c r="J13">
+        <v>0.2680061118544322</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.6195459999999999</v>
+      </c>
+      <c r="N13">
+        <v>1.239092</v>
+      </c>
+      <c r="O13">
+        <v>0.4045682672681883</v>
+      </c>
+      <c r="P13">
+        <v>0.3157419435722618</v>
+      </c>
+      <c r="Q13">
+        <v>3.55589975565</v>
+      </c>
+      <c r="R13">
+        <v>21.3353985339</v>
+      </c>
+      <c r="S13">
+        <v>0.08677205681989031</v>
+      </c>
+      <c r="T13">
+        <v>0.0846207706461634</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>6.327592</v>
+      </c>
+      <c r="H14">
+        <v>12.655184</v>
+      </c>
+      <c r="I14">
+        <v>0.2364561384787094</v>
+      </c>
+      <c r="J14">
+        <v>0.1969771980923172</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.5</v>
+      </c>
+      <c r="M14">
+        <v>0.050199</v>
+      </c>
+      <c r="N14">
+        <v>0.100398</v>
+      </c>
+      <c r="O14">
+        <v>0.03278033019113316</v>
+      </c>
+      <c r="P14">
+        <v>0.02558313640211376</v>
+      </c>
+      <c r="Q14">
+        <v>0.317638790808</v>
+      </c>
+      <c r="R14">
+        <v>1.270555163232</v>
+      </c>
+      <c r="S14">
+        <v>0.0077511102950524</v>
+      </c>
+      <c r="T14">
+        <v>0.005039294526901933</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>6.327592</v>
+      </c>
+      <c r="H15">
+        <v>12.655184</v>
+      </c>
+      <c r="I15">
+        <v>0.2364561384787094</v>
+      </c>
+      <c r="J15">
+        <v>0.1969771980923172</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.7708836666666666</v>
+      </c>
+      <c r="N15">
+        <v>2.312651</v>
+      </c>
+      <c r="O15">
+        <v>0.5033929188287568</v>
+      </c>
+      <c r="P15">
+        <v>0.5893032329676366</v>
+      </c>
+      <c r="Q15">
+        <v>4.877837322130667</v>
+      </c>
+      <c r="R15">
+        <v>29.267023932784</v>
+      </c>
+      <c r="S15">
+        <v>0.1190303457237742</v>
+      </c>
+      <c r="T15">
+        <v>0.1160792996567091</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>6.327592</v>
+      </c>
+      <c r="H16">
+        <v>12.655184</v>
+      </c>
+      <c r="I16">
+        <v>0.2364561384787094</v>
+      </c>
+      <c r="J16">
+        <v>0.1969771980923172</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.09074700000000001</v>
+      </c>
+      <c r="N16">
+        <v>0.272241</v>
+      </c>
+      <c r="O16">
+        <v>0.05925848371192178</v>
+      </c>
+      <c r="P16">
+        <v>0.06937168705798773</v>
+      </c>
+      <c r="Q16">
+        <v>0.5742099912240001</v>
+      </c>
+      <c r="R16">
+        <v>3.445259947344</v>
+      </c>
+      <c r="S16">
+        <v>0.01401203223062452</v>
+      </c>
+      <c r="T16">
+        <v>0.01366464054361949</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>6.327592</v>
+      </c>
+      <c r="H17">
+        <v>12.655184</v>
+      </c>
+      <c r="I17">
+        <v>0.2364561384787094</v>
+      </c>
+      <c r="J17">
+        <v>0.1969771980923172</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.6195459999999999</v>
+      </c>
+      <c r="N17">
+        <v>1.239092</v>
+      </c>
+      <c r="O17">
+        <v>0.4045682672681883</v>
+      </c>
+      <c r="P17">
+        <v>0.3157419435722618</v>
+      </c>
+      <c r="Q17">
+        <v>3.920234313232</v>
+      </c>
+      <c r="R17">
+        <v>15.680937252928</v>
+      </c>
+      <c r="S17">
+        <v>0.09566265022925823</v>
+      </c>
+      <c r="T17">
+        <v>0.06219396336508665</v>
       </c>
     </row>
   </sheetData>
